--- a/Tm_data_2state_vs_3state_summary.xlsx
+++ b/Tm_data_2state_vs_3state_summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ar359/OneDrive - Duke University/melting/uv_sim/tar/paper_melts_github/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://prodduke-my.sharepoint.com/personal/ar359_duke_edu/Documents/melting/uv_sim/tar/paper_melts_github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86711D3-5624-DA48-8605-41F0489690FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D86711D3-5624-DA48-8605-41F0489690FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{89B042FC-9740-7C4C-9EE0-42F9DF7E212C}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="21880" windowHeight="16060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7880" yWindow="460" windowWidth="21880" windowHeight="16060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wt" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="77">
   <si>
     <t>filename</t>
   </si>
@@ -261,12 +261,18 @@
   <si>
     <t>delG_37C_melt_test</t>
   </si>
+  <si>
+    <t>3state_constrain_14pct</t>
+  </si>
+  <si>
+    <t>3state_constrain_7pct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -397,6 +403,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -743,7 +756,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,6 +765,8 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5185,10 +5200,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6024,6 +6039,833 @@
         <v>1.9601874402871886</v>
       </c>
     </row>
+    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>7.9575143865306302E-4</v>
+      </c>
+      <c r="C19">
+        <v>0.94190760041312005</v>
+      </c>
+      <c r="D19">
+        <v>1.8229204420031099E-3</v>
+      </c>
+      <c r="E19">
+        <v>0.90575373254615399</v>
+      </c>
+      <c r="F19">
+        <v>5.2555771141357599E-3</v>
+      </c>
+      <c r="G19">
+        <v>0.27197563612440101</v>
+      </c>
+      <c r="H19">
+        <v>5.5661921136134698</v>
+      </c>
+      <c r="I19">
+        <v>1.50613224452948E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>-88.111342771046793</v>
+      </c>
+      <c r="M19">
+        <v>-0.25214842040339702</v>
+      </c>
+      <c r="N19">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O19">
+        <v>0.89477234398081096</v>
+      </c>
+      <c r="P19">
+        <v>-12.9307697435699</v>
+      </c>
+      <c r="Q19">
+        <v>-9.9049886987291504</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S19">
+        <v>1.3214105612381899</v>
+      </c>
+      <c r="T19">
+        <v>-2399.19963743159</v>
+      </c>
+      <c r="U19">
+        <v>-2372.3455934902199</v>
+      </c>
+      <c r="V19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>6.1382689262280004E-4</v>
+      </c>
+      <c r="C20">
+        <v>0.95491115501859603</v>
+      </c>
+      <c r="D20">
+        <v>1.36460547460239E-3</v>
+      </c>
+      <c r="E20">
+        <v>0.89861246878400702</v>
+      </c>
+      <c r="F20">
+        <v>3.88496201902719E-3</v>
+      </c>
+      <c r="G20">
+        <v>0.37695774873214799</v>
+      </c>
+      <c r="H20">
+        <v>4.8824137876289804</v>
+      </c>
+      <c r="I20">
+        <v>1.27679956208231E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>-80.055405468392493</v>
+      </c>
+      <c r="M20">
+        <v>-0.22892285435363199</v>
+      </c>
+      <c r="N20">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O20">
+        <v>0.92229226587447199</v>
+      </c>
+      <c r="P20">
+        <v>-11.7997672143135</v>
+      </c>
+      <c r="Q20">
+        <v>-9.0526929620699903</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S20">
+        <v>0.50690827329411803</v>
+      </c>
+      <c r="T20">
+        <v>-2591.7700224812002</v>
+      </c>
+      <c r="U20">
+        <v>-2564.8545749847399</v>
+      </c>
+      <c r="V20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>4.5739559157561898E-4</v>
+      </c>
+      <c r="C21">
+        <v>0.99610989066341504</v>
+      </c>
+      <c r="D21">
+        <v>7.1277968942795198E-4</v>
+      </c>
+      <c r="E21">
+        <v>0.87921259243288097</v>
+      </c>
+      <c r="F21">
+        <v>0.16178560072787601</v>
+      </c>
+      <c r="G21">
+        <v>-3.8789340997150901</v>
+      </c>
+      <c r="H21">
+        <v>-116.386924262166</v>
+      </c>
+      <c r="I21">
+        <v>-0.39395771557382198</v>
+      </c>
+      <c r="J21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>-79.4319481649311</v>
+      </c>
+      <c r="M21">
+        <v>-0.22601613538647</v>
+      </c>
+      <c r="N21">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O21">
+        <v>5.80300080021021</v>
+      </c>
+      <c r="P21">
+        <v>-12.042977238101001</v>
+      </c>
+      <c r="Q21">
+        <v>-9.3307836134633906</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S21">
+        <v>2.2684651246736801E-2</v>
+      </c>
+      <c r="T21">
+        <v>-2237.7074287086298</v>
+      </c>
+      <c r="U21">
+        <v>-2212.9221061655699</v>
+      </c>
+      <c r="V21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>6.2232464095049401E-4</v>
+      </c>
+      <c r="C22">
+        <v>0.96430954869837704</v>
+      </c>
+      <c r="D22">
+        <v>1.3001018686778199E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.89452626458768003</v>
+      </c>
+      <c r="F22">
+        <v>5.6975379953679801E-2</v>
+      </c>
+      <c r="G22">
+        <v>-1.0766669049528399</v>
+      </c>
+      <c r="H22">
+        <v>-35.312772786974598</v>
+      </c>
+      <c r="I22">
+        <v>-0.122042799169234</v>
+      </c>
+      <c r="J22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>-82.532898801456795</v>
+      </c>
+      <c r="M22">
+        <v>-0.235695803381166</v>
+      </c>
+      <c r="N22">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O22">
+        <v>2.54002180335516</v>
+      </c>
+      <c r="P22">
+        <v>-12.2578380653281</v>
+      </c>
+      <c r="Q22">
+        <v>-9.4294884247541795</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S22">
+        <v>0.61700116192635102</v>
+      </c>
+      <c r="T22">
+        <v>-2409.55902954047</v>
+      </c>
+      <c r="U22">
+        <v>-2383.3740915468402</v>
+      </c>
+      <c r="V22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1.38263826572858E-4</v>
+      </c>
+      <c r="C23">
+        <v>2.3104392366163001E-2</v>
+      </c>
+      <c r="D23">
+        <v>4.5550240322453698E-4</v>
+      </c>
+      <c r="E23">
+        <v>1.1214003988426299E-2</v>
+      </c>
+      <c r="F23">
+        <v>7.4114130143927801E-2</v>
+      </c>
+      <c r="G23">
+        <v>1.98196558734376</v>
+      </c>
+      <c r="H23">
+        <v>57.3287619278289</v>
+      </c>
+      <c r="I23">
+        <v>0.19227516074533399</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>3.9527587491692402</v>
+      </c>
+      <c r="M23">
+        <v>1.16941212851773E-2</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2.0947646133377002E-15</v>
+      </c>
+      <c r="O23">
+        <v>2.30730192894401</v>
+      </c>
+      <c r="P23">
+        <v>0.48608336843495098</v>
+      </c>
+      <c r="Q23">
+        <v>0.35487930860205302</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.53588716499920497</v>
+      </c>
+      <c r="T23">
+        <v>144.730940785283</v>
+      </c>
+      <c r="U23">
+        <v>143.88730886664101</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27">
+        <v>8.2746528717504903E-4</v>
+      </c>
+      <c r="C27">
+        <v>0.93887810153633999</v>
+      </c>
+      <c r="D27">
+        <v>8.2581991858779295E-4</v>
+      </c>
+      <c r="E27">
+        <v>0.87287642672124599</v>
+      </c>
+      <c r="F27">
+        <v>4.2262770055788799E-3</v>
+      </c>
+      <c r="G27">
+        <v>0.51776507237218705</v>
+      </c>
+      <c r="H27">
+        <v>8.3169695675477904</v>
+      </c>
+      <c r="I27">
+        <v>2.2754322962025099E-2</v>
+      </c>
+      <c r="J27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>-90.369933032951195</v>
+      </c>
+      <c r="M27">
+        <v>-0.25847487697479898</v>
+      </c>
+      <c r="N27">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O27">
+        <v>1.25948875764607</v>
+      </c>
+      <c r="P27">
+        <v>-13.303063714145001</v>
+      </c>
+      <c r="Q27">
+        <v>-10.201365190447399</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S27">
+        <v>1.25126904013803</v>
+      </c>
+      <c r="T27">
+        <v>-2408.2535271981501</v>
+      </c>
+      <c r="U27">
+        <v>-2381.3994832567801</v>
+      </c>
+      <c r="V27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>6.3033699269016304E-4</v>
+      </c>
+      <c r="C28">
+        <v>0.95331857093161199</v>
+      </c>
+      <c r="D28">
+        <v>6.0232285730438598E-4</v>
+      </c>
+      <c r="E28">
+        <v>0.86843614740800201</v>
+      </c>
+      <c r="F28">
+        <v>3.1177149654315001E-3</v>
+      </c>
+      <c r="G28">
+        <v>0.59161007105964103</v>
+      </c>
+      <c r="H28">
+        <v>7.3804750361360503</v>
+      </c>
+      <c r="I28">
+        <v>1.9613410259409901E-2</v>
+      </c>
+      <c r="J28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <v>-81.238393778878205</v>
+      </c>
+      <c r="M28">
+        <v>-0.23217245162684999</v>
+      </c>
+      <c r="N28">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O28">
+        <v>1.29717971007745</v>
+      </c>
+      <c r="P28">
+        <v>-12.0138556018166</v>
+      </c>
+      <c r="Q28">
+        <v>-9.2277861822944196</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S28">
+        <v>0.48886789040977602</v>
+      </c>
+      <c r="T28">
+        <v>-2597.8217311542799</v>
+      </c>
+      <c r="U28">
+        <v>-2570.90628365782</v>
+      </c>
+      <c r="V28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29">
+        <v>4.5739420921405002E-4</v>
+      </c>
+      <c r="C29">
+        <v>0.99611002391491399</v>
+      </c>
+      <c r="D29">
+        <v>7.1277855345918198E-4</v>
+      </c>
+      <c r="E29">
+        <v>0.87921265436697504</v>
+      </c>
+      <c r="F29">
+        <v>0.348376912605811</v>
+      </c>
+      <c r="G29">
+        <v>-9.39130440757339</v>
+      </c>
+      <c r="H29">
+        <v>-116.35289426935699</v>
+      </c>
+      <c r="I29">
+        <v>-0.39537642508233101</v>
+      </c>
+      <c r="J29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>-79.431895403381404</v>
+      </c>
+      <c r="M29">
+        <v>-0.22601598544577101</v>
+      </c>
+      <c r="N29">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O29">
+        <v>6.2770577341783698</v>
+      </c>
+      <c r="P29">
+        <v>-12.0429691828702</v>
+      </c>
+      <c r="Q29">
+        <v>-9.3307773575210202</v>
+      </c>
+      <c r="R29" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S29">
+        <v>2.26856873292395E-2</v>
+      </c>
+      <c r="T29">
+        <v>-2237.70121728395</v>
+      </c>
+      <c r="U29">
+        <v>-2212.9158947408901</v>
+      </c>
+      <c r="V29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>6.38398829693087E-4</v>
+      </c>
+      <c r="C30">
+        <v>0.96276889879428895</v>
+      </c>
+      <c r="D30">
+        <v>7.1364044311712001E-4</v>
+      </c>
+      <c r="E30">
+        <v>0.87350840949874098</v>
+      </c>
+      <c r="F30">
+        <v>0.11857363485894</v>
+      </c>
+      <c r="G30">
+        <v>-2.7606430880471802</v>
+      </c>
+      <c r="H30">
+        <v>-33.551816555224498</v>
+      </c>
+      <c r="I30">
+        <v>-0.117669563953632</v>
+      </c>
+      <c r="J30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>-83.680074071736897</v>
+      </c>
+      <c r="M30">
+        <v>-0.23888777134913999</v>
+      </c>
+      <c r="N30">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O30">
+        <v>2.9445754006339602</v>
+      </c>
+      <c r="P30">
+        <v>-12.453296166277299</v>
+      </c>
+      <c r="Q30">
+        <v>-9.5866429100876402</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S30">
+        <v>0.58760753929234899</v>
+      </c>
+      <c r="T30">
+        <v>-2414.5921585454598</v>
+      </c>
+      <c r="U30">
+        <v>-2388.4072205518301</v>
+      </c>
+      <c r="V30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>1.51188393729369E-4</v>
+      </c>
+      <c r="C31">
+        <v>2.4301642706078399E-2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9.1244328557693797E-5</v>
+      </c>
+      <c r="E31">
+        <v>4.4221282381892704E-3</v>
+      </c>
+      <c r="F31">
+        <v>0.16249608626026099</v>
+      </c>
+      <c r="G31">
+        <v>4.6886825030530304</v>
+      </c>
+      <c r="H31">
+        <v>58.550451797108302</v>
+      </c>
+      <c r="I31">
+        <v>0.19637259121648901</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>4.7875894272498796</v>
+      </c>
+      <c r="M31">
+        <v>1.40763761684305E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>3.16105016296791E-15</v>
+      </c>
+      <c r="O31">
+        <v>2.35647109459787</v>
+      </c>
+      <c r="P31">
+        <v>0.60099393463789197</v>
+      </c>
+      <c r="Q31">
+        <v>0.43670310816521102</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0.50640326644273903</v>
+      </c>
+      <c r="T31">
+        <v>147.086889996076</v>
+      </c>
+      <c r="U31">
+        <v>146.232944135308</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6031,10 +6873,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6868,6 +7710,833 @@
         <v>1.7029985171621438</v>
       </c>
     </row>
+    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>6.4937432964370196E-4</v>
+      </c>
+      <c r="C19">
+        <v>0.85477891587031396</v>
+      </c>
+      <c r="D19">
+        <v>2.3861733957672702E-3</v>
+      </c>
+      <c r="E19">
+        <v>0.75215448022810805</v>
+      </c>
+      <c r="F19">
+        <v>7.0224365698356396E-3</v>
+      </c>
+      <c r="G19">
+        <v>-5.1811328727706003E-3</v>
+      </c>
+      <c r="H19">
+        <v>6.9287256386877196</v>
+      </c>
+      <c r="I19">
+        <v>1.9631129009133899E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K19">
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <v>-86.344126173136203</v>
+      </c>
+      <c r="M19">
+        <v>-0.247428731625224</v>
+      </c>
+      <c r="N19">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O19">
+        <v>0.83993466521474303</v>
+      </c>
+      <c r="P19">
+        <v>-12.570775551759199</v>
+      </c>
+      <c r="Q19">
+        <v>-9.6016307722565397</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S19">
+        <v>13.1088277571912</v>
+      </c>
+      <c r="T19">
+        <v>-2566.40127873651</v>
+      </c>
+      <c r="U19">
+        <v>-2539.54723479515</v>
+      </c>
+      <c r="V19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20">
+        <v>1.0433534820731901E-3</v>
+      </c>
+      <c r="C20">
+        <v>0.98097317094754199</v>
+      </c>
+      <c r="D20">
+        <v>1.4606663772031901E-2</v>
+      </c>
+      <c r="E20">
+        <v>1.02910136894329</v>
+      </c>
+      <c r="F20">
+        <v>2.7240697932576701E-2</v>
+      </c>
+      <c r="G20">
+        <v>-2.7115670188336498</v>
+      </c>
+      <c r="H20">
+        <v>6.1662407422759102</v>
+      </c>
+      <c r="I20">
+        <v>1.7073827907672201E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+      <c r="L20">
+        <v>-91.656570805199195</v>
+      </c>
+      <c r="M20">
+        <v>-0.26183123081474502</v>
+      </c>
+      <c r="N20">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O20">
+        <v>0.87062227843228301</v>
+      </c>
+      <c r="P20">
+        <v>-13.5889710254747</v>
+      </c>
+      <c r="Q20">
+        <v>-10.446996255697799</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S20">
+        <v>3.2215007490739</v>
+      </c>
+      <c r="T20">
+        <v>-1954.8338093510299</v>
+      </c>
+      <c r="U20">
+        <v>-1931.47307405981</v>
+      </c>
+      <c r="V20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>4.8917739631835599E-4</v>
+      </c>
+      <c r="C21">
+        <v>1.0666241052401999</v>
+      </c>
+      <c r="D21">
+        <v>9.94411171178557E-3</v>
+      </c>
+      <c r="E21">
+        <v>1.15360869127319</v>
+      </c>
+      <c r="F21">
+        <v>2.33798312290662E-2</v>
+      </c>
+      <c r="G21">
+        <v>-2.3584067376215501</v>
+      </c>
+      <c r="H21">
+        <v>5.22553490863453</v>
+      </c>
+      <c r="I21">
+        <v>1.39187909018989E-2</v>
+      </c>
+      <c r="J21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21">
+        <v>25</v>
+      </c>
+      <c r="L21">
+        <v>-88.617321037088104</v>
+      </c>
+      <c r="M21">
+        <v>-0.25291914601313198</v>
+      </c>
+      <c r="N21">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O21">
+        <v>0.90848272250156203</v>
+      </c>
+      <c r="P21">
+        <v>-13.2069484618125</v>
+      </c>
+      <c r="Q21">
+        <v>-10.1719187096549</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S21">
+        <v>11.346257857925499</v>
+      </c>
+      <c r="T21">
+        <v>-2182.0297574298302</v>
+      </c>
+      <c r="U21">
+        <v>-2157.0148408688601</v>
+      </c>
+      <c r="V21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>7.2730173601175097E-4</v>
+      </c>
+      <c r="C22">
+        <v>0.96745873068601895</v>
+      </c>
+      <c r="D22">
+        <v>8.9789829598615895E-3</v>
+      </c>
+      <c r="E22">
+        <v>0.97828818014820096</v>
+      </c>
+      <c r="F22">
+        <v>1.9214321910492799E-2</v>
+      </c>
+      <c r="G22">
+        <v>-1.69171829644266</v>
+      </c>
+      <c r="H22">
+        <v>6.1068337631993899</v>
+      </c>
+      <c r="I22">
+        <v>1.6874582606234999E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22">
+        <v>25</v>
+      </c>
+      <c r="L22">
+        <v>-88.872672671807905</v>
+      </c>
+      <c r="M22">
+        <v>-0.25405970281770002</v>
+      </c>
+      <c r="N22">
+        <v>1.0755082133243501</v>
+      </c>
+      <c r="O22">
+        <v>0.87301322204952903</v>
+      </c>
+      <c r="P22">
+        <v>-13.1222316796821</v>
+      </c>
+      <c r="Q22">
+        <v>-10.0735152458697</v>
+      </c>
+      <c r="R22" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S22">
+        <v>9.2255287880635795</v>
+      </c>
+      <c r="T22">
+        <v>-2234.4216151724499</v>
+      </c>
+      <c r="U22">
+        <v>-2209.3450499079399</v>
+      </c>
+      <c r="V22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>2.3285516815261899E-4</v>
+      </c>
+      <c r="C23">
+        <v>8.7011785165296895E-2</v>
+      </c>
+      <c r="D23">
+        <v>5.0354543912763897E-3</v>
+      </c>
+      <c r="E23">
+        <v>0.16778529138575299</v>
+      </c>
+      <c r="F23">
+        <v>8.7638699231701207E-3</v>
+      </c>
+      <c r="G23">
+        <v>1.2012455339169701</v>
+      </c>
+      <c r="H23">
+        <v>0.696592447852174</v>
+      </c>
+      <c r="I23">
+        <v>2.3363041583450901E-3</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>2.1762996630671401</v>
+      </c>
+      <c r="M23">
+        <v>5.93484895030311E-3</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.8035649900140899E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.41997079704394302</v>
+      </c>
+      <c r="Q23">
+        <v>0.35206356567355901</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>4.3060366682275202</v>
+      </c>
+      <c r="T23">
+        <v>252.40492925843401</v>
+      </c>
+      <c r="U23">
+        <v>250.98789389404101</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>6.8875785203216099E-4</v>
+      </c>
+      <c r="C27">
+        <v>0.85101304613199602</v>
+      </c>
+      <c r="D27">
+        <v>9.6504549838154305E-4</v>
+      </c>
+      <c r="E27">
+        <v>0.72304325958903704</v>
+      </c>
+      <c r="F27">
+        <v>5.7493702768786998E-3</v>
+      </c>
+      <c r="G27">
+        <v>0.24282629334714301</v>
+      </c>
+      <c r="H27">
+        <v>9.6666720881748596</v>
+      </c>
+      <c r="I27">
+        <v>2.7281095569440798E-2</v>
+      </c>
+      <c r="J27">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+      <c r="L27">
+        <v>-88.447331223592698</v>
+      </c>
+      <c r="M27">
+        <v>-0.25329873991285201</v>
+      </c>
+      <c r="N27">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O27">
+        <v>1.20516748635708</v>
+      </c>
+      <c r="P27">
+        <v>-12.923778931176701</v>
+      </c>
+      <c r="Q27">
+        <v>-9.8841940522224796</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S27">
+        <v>10.391996529751101</v>
+      </c>
+      <c r="T27">
+        <v>-2604.95476751768</v>
+      </c>
+      <c r="U27">
+        <v>-2578.10072357632</v>
+      </c>
+      <c r="V27" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1.0173946848410899E-3</v>
+      </c>
+      <c r="C28">
+        <v>0.983483811267298</v>
+      </c>
+      <c r="D28">
+        <v>6.6759457989606502E-3</v>
+      </c>
+      <c r="E28">
+        <v>-74.174138787271502</v>
+      </c>
+      <c r="F28">
+        <v>7.3767377615580196</v>
+      </c>
+      <c r="G28">
+        <v>811.77629567896497</v>
+      </c>
+      <c r="H28">
+        <v>-1.3164877938429</v>
+      </c>
+      <c r="I28">
+        <v>-9.5553676785393102E-3</v>
+      </c>
+      <c r="J28">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K28">
+        <v>25</v>
+      </c>
+      <c r="L28">
+        <v>-88.426707355812397</v>
+      </c>
+      <c r="M28">
+        <v>-0.25166333872839503</v>
+      </c>
+      <c r="N28">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O28">
+        <v>1.64720504533284</v>
+      </c>
+      <c r="P28">
+        <v>-13.3907662805541</v>
+      </c>
+      <c r="Q28">
+        <v>-10.370806215813399</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S28">
+        <v>3.6393128508741399</v>
+      </c>
+      <c r="T28">
+        <v>-1940.32204917841</v>
+      </c>
+      <c r="U28">
+        <v>-1916.9613138872</v>
+      </c>
+      <c r="V28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>4.4584586371181198E-4</v>
+      </c>
+      <c r="C29">
+        <v>1.07080779969756</v>
+      </c>
+      <c r="D29">
+        <v>7.6941019555792E-4</v>
+      </c>
+      <c r="E29">
+        <v>-42.987862452558502</v>
+      </c>
+      <c r="F29">
+        <v>4.1585514154259</v>
+      </c>
+      <c r="G29">
+        <v>480.57218375595198</v>
+      </c>
+      <c r="H29">
+        <v>-1.2585286452029001</v>
+      </c>
+      <c r="I29">
+        <v>-9.3609782613136398E-3</v>
+      </c>
+      <c r="J29">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K29">
+        <v>25</v>
+      </c>
+      <c r="L29">
+        <v>-85.532831144684707</v>
+      </c>
+      <c r="M29">
+        <v>-0.24337703918912201</v>
+      </c>
+      <c r="N29">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O29">
+        <v>1.64487237232613</v>
+      </c>
+      <c r="P29">
+        <v>-12.967533140055901</v>
+      </c>
+      <c r="Q29">
+        <v>-10.0470086697865</v>
+      </c>
+      <c r="R29" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S29">
+        <v>13.3154121631389</v>
+      </c>
+      <c r="T29">
+        <v>-2159.7850052742601</v>
+      </c>
+      <c r="U29">
+        <v>-2134.7700887132901</v>
+      </c>
+      <c r="V29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>7.1733280019502298E-4</v>
+      </c>
+      <c r="C30">
+        <v>0.96843488569895397</v>
+      </c>
+      <c r="D30">
+        <v>2.8034671643000302E-3</v>
+      </c>
+      <c r="E30">
+        <v>-38.812985993413598</v>
+      </c>
+      <c r="F30">
+        <v>3.84701284908693</v>
+      </c>
+      <c r="G30">
+        <v>430.86376857608798</v>
+      </c>
+      <c r="H30">
+        <v>2.36388521637635</v>
+      </c>
+      <c r="I30">
+        <v>2.7882498765293001E-3</v>
+      </c>
+      <c r="J30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K30">
+        <v>25</v>
+      </c>
+      <c r="L30">
+        <v>-87.468956574696605</v>
+      </c>
+      <c r="M30">
+        <v>-0.24944637261012301</v>
+      </c>
+      <c r="N30">
+        <v>1.5325406331903699</v>
+      </c>
+      <c r="O30">
+        <v>1.4990816346720199</v>
+      </c>
+      <c r="P30">
+        <v>-13.094026117262199</v>
+      </c>
+      <c r="Q30">
+        <v>-10.100669645940799</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S30">
+        <v>9.1155738479214108</v>
+      </c>
+      <c r="T30">
+        <v>-2235.0206073234499</v>
+      </c>
+      <c r="U30">
+        <v>-2209.9440420589399</v>
+      </c>
+      <c r="V30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>2.3420704441505199E-4</v>
+      </c>
+      <c r="C31">
+        <v>9.0359600280615501E-2</v>
+      </c>
+      <c r="D31">
+        <v>2.7394204222614799E-3</v>
+      </c>
+      <c r="E31">
+        <v>30.718823379452299</v>
+      </c>
+      <c r="F31">
+        <v>3.01724594896712</v>
+      </c>
+      <c r="G31">
+        <v>333.16646278603201</v>
+      </c>
+      <c r="H31">
+        <v>5.16390432953673</v>
+      </c>
+      <c r="I31">
+        <v>1.7319239098258402E-2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1.36907331104768</v>
+      </c>
+      <c r="M31">
+        <v>4.3432891061950399E-3</v>
+      </c>
+      <c r="N31" s="1">
+        <v>4.0539612963254099E-16</v>
+      </c>
+      <c r="O31">
+        <v>0.20783086917909999</v>
+      </c>
+      <c r="P31">
+        <v>0.21058593033332801</v>
+      </c>
+      <c r="Q31">
+        <v>0.202249803807134</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>4.05205014959256</v>
+      </c>
+      <c r="T31">
+        <v>276.50130733089401</v>
+      </c>
+      <c r="U31">
+        <v>275.09352616547199</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6875,10 +8544,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7707,6 +9376,833 @@
         <v>2.3468218192577046</v>
       </c>
     </row>
+    <row r="17" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5.5369999999999996E-4</v>
+      </c>
+      <c r="C19" s="8">
+        <v>0.73409188999999997</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1.37969E-3</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0.69334092999999997</v>
+      </c>
+      <c r="F19" s="8">
+        <v>3.83221E-3</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.28608994999999998</v>
+      </c>
+      <c r="H19" s="8">
+        <v>7.3439504099999997</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2.1023750000000001E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K19" s="8">
+        <v>25</v>
+      </c>
+      <c r="L19" s="8">
+        <v>-85.181377999999995</v>
+      </c>
+      <c r="M19" s="8">
+        <v>-0.24394969999999999</v>
+      </c>
+      <c r="N19" s="8">
+        <v>1.07550821</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0.82322318000000005</v>
+      </c>
+      <c r="P19" s="8">
+        <v>-12.445335999999999</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>-9.5179396000000001</v>
+      </c>
+      <c r="R19" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S19" s="8">
+        <v>2.2491205999999999</v>
+      </c>
+      <c r="T19" s="8">
+        <v>-2381.4508000000001</v>
+      </c>
+      <c r="U19" s="8">
+        <v>-2354.9101999999998</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="8">
+        <v>4.8249000000000002E-4</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.73032129999999995</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1.1185100000000001E-3</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.67429422999999999</v>
+      </c>
+      <c r="F20" s="8">
+        <v>2.95226E-3</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.38792033999999997</v>
+      </c>
+      <c r="H20" s="8">
+        <v>8.3148558099999992</v>
+      </c>
+      <c r="I20" s="8">
+        <v>2.4280079999999999E-2</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K20" s="8">
+        <v>25</v>
+      </c>
+      <c r="L20" s="8">
+        <v>-85.137998999999994</v>
+      </c>
+      <c r="M20" s="8">
+        <v>-0.24432400000000001</v>
+      </c>
+      <c r="N20" s="8">
+        <v>1.07550821</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0.78414729999999999</v>
+      </c>
+      <c r="P20" s="8">
+        <v>-12.290369</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>-9.3584814000000005</v>
+      </c>
+      <c r="R20" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S20" s="8">
+        <v>1.32332765</v>
+      </c>
+      <c r="T20" s="8">
+        <v>-2641.5544</v>
+      </c>
+      <c r="U20" s="8">
+        <v>-2614.7004000000002</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="8">
+        <v>6.2416999999999995E-4</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0.72033842999999997</v>
+      </c>
+      <c r="D21" s="8">
+        <v>2.9005300000000001E-3</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.73696967999999996</v>
+      </c>
+      <c r="F21" s="8">
+        <v>7.8810700000000004E-3</v>
+      </c>
+      <c r="G21" s="8">
+        <v>-0.36669230000000003</v>
+      </c>
+      <c r="H21" s="8">
+        <v>5.3690077599999997</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1.439999E-2</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K21" s="8">
+        <v>25</v>
+      </c>
+      <c r="L21" s="8">
+        <v>-86.722887999999998</v>
+      </c>
+      <c r="M21" s="8">
+        <v>-0.248168</v>
+      </c>
+      <c r="N21" s="8">
+        <v>1.07550821</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0.90270839000000003</v>
+      </c>
+      <c r="P21" s="8">
+        <v>-12.729106</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>-9.7510890999999997</v>
+      </c>
+      <c r="R21" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S21" s="8">
+        <v>0.41980271000000002</v>
+      </c>
+      <c r="T21" s="8">
+        <v>-2450.4495999999999</v>
+      </c>
+      <c r="U21" s="8">
+        <v>-2424.9205999999999</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="8">
+        <v>5.5345000000000004E-4</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0.72825054</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1.7995800000000001E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.70153494000000005</v>
+      </c>
+      <c r="F22" s="8">
+        <v>4.8885100000000004E-3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.10243933</v>
+      </c>
+      <c r="H22" s="8">
+        <v>7.0092713199999999</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1.9901269999999999E-2</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K22" s="8">
+        <v>25</v>
+      </c>
+      <c r="L22" s="8">
+        <v>-85.680755000000005</v>
+      </c>
+      <c r="M22" s="8">
+        <v>-0.24548059999999999</v>
+      </c>
+      <c r="N22" s="8">
+        <v>1.07550821</v>
+      </c>
+      <c r="O22" s="8">
+        <v>0.83669296000000004</v>
+      </c>
+      <c r="P22" s="8">
+        <v>-12.48827</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>-9.5425033999999993</v>
+      </c>
+      <c r="R22" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S22" s="8">
+        <v>1.3307503199999999</v>
+      </c>
+      <c r="T22" s="8">
+        <v>-2491.1516000000001</v>
+      </c>
+      <c r="U22" s="8">
+        <v>-2464.8436999999999</v>
+      </c>
+      <c r="V22" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="9">
+        <v>5.7800000000000002E-5</v>
+      </c>
+      <c r="C23" s="8">
+        <v>5.8026099999999997E-3</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7.8576000000000004E-4</v>
+      </c>
+      <c r="E23" s="8">
+        <v>2.6234960000000002E-2</v>
+      </c>
+      <c r="F23" s="8">
+        <v>2.1463300000000001E-3</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.33432092000000002</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1.22570055</v>
+      </c>
+      <c r="I23" s="8">
+        <v>4.1108799999999999E-3</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0.73711225000000002</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1.90646E-3</v>
+      </c>
+      <c r="N23" s="9">
+        <v>4.25E-16</v>
+      </c>
+      <c r="O23" s="8">
+        <v>4.9330579999999999E-2</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0.18166816</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>0.16121979</v>
+      </c>
+      <c r="R23" s="8">
+        <v>0</v>
+      </c>
+      <c r="S23" s="8">
+        <v>0.74683434000000004</v>
+      </c>
+      <c r="T23" s="8">
+        <v>110.018084</v>
+      </c>
+      <c r="U23" s="8">
+        <v>109.75161799999999</v>
+      </c>
+      <c r="V23" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="8">
+        <v>6.0145999999999995E-4</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0.72958091999999997</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.1335999999999997E-4</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.67953293000000003</v>
+      </c>
+      <c r="F27" s="8">
+        <v>3.4207199999999999E-3</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.38767776999999998</v>
+      </c>
+      <c r="H27" s="8">
+        <v>9.9448898799999998</v>
+      </c>
+      <c r="I27" s="8">
+        <v>2.821421E-2</v>
+      </c>
+      <c r="J27" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K27" s="8">
+        <v>25</v>
+      </c>
+      <c r="L27" s="8">
+        <v>-87.750754000000001</v>
+      </c>
+      <c r="M27" s="8">
+        <v>-0.25109959999999998</v>
+      </c>
+      <c r="N27" s="8">
+        <v>1.53254063</v>
+      </c>
+      <c r="O27" s="8">
+        <v>1.1939701</v>
+      </c>
+      <c r="P27" s="8">
+        <v>-12.882903000000001</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>-9.8697078999999999</v>
+      </c>
+      <c r="R27" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S27" s="8">
+        <v>2.136968</v>
+      </c>
+      <c r="T27" s="8">
+        <v>-2389.6860999999999</v>
+      </c>
+      <c r="U27" s="8">
+        <v>-2363.1455000000001</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="8">
+        <v>5.1020000000000004E-4</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0.72767024999999996</v>
+      </c>
+      <c r="D28" s="8">
+        <v>4.7164E-4</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.66603730000000005</v>
+      </c>
+      <c r="F28" s="8">
+        <v>2.2949200000000002E-3</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0.48754602000000002</v>
+      </c>
+      <c r="H28" s="8">
+        <v>11.826266199999999</v>
+      </c>
+      <c r="I28" s="8">
+        <v>3.452417E-2</v>
+      </c>
+      <c r="J28" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K28" s="8">
+        <v>25</v>
+      </c>
+      <c r="L28" s="8">
+        <v>-88.822963000000001</v>
+      </c>
+      <c r="M28" s="8">
+        <v>-0.25490429999999997</v>
+      </c>
+      <c r="N28" s="8">
+        <v>1.53254063</v>
+      </c>
+      <c r="O28" s="8">
+        <v>1.1182506299999999</v>
+      </c>
+      <c r="P28" s="8">
+        <v>-12.820684999999999</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>-9.7618326999999994</v>
+      </c>
+      <c r="R28" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S28" s="8">
+        <v>1.0607480600000001</v>
+      </c>
+      <c r="T28" s="8">
+        <v>-2678.2694999999999</v>
+      </c>
+      <c r="U28" s="8">
+        <v>-2651.4153999999999</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="8">
+        <v>6.3568000000000001E-4</v>
+      </c>
+      <c r="C29" s="8">
+        <v>0.71923530999999996</v>
+      </c>
+      <c r="D29" s="8">
+        <v>9.6714000000000001E-4</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.68050016000000002</v>
+      </c>
+      <c r="F29" s="8">
+        <v>5.86727E-3</v>
+      </c>
+      <c r="G29" s="8">
+        <v>9.7328860000000003E-2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>7.7510404800000003</v>
+      </c>
+      <c r="I29" s="8">
+        <v>2.085625E-2</v>
+      </c>
+      <c r="J29" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K29" s="8">
+        <v>25</v>
+      </c>
+      <c r="L29" s="8">
+        <v>-87.804389999999998</v>
+      </c>
+      <c r="M29" s="8">
+        <v>-0.2510927</v>
+      </c>
+      <c r="N29" s="8">
+        <v>1.53254063</v>
+      </c>
+      <c r="O29" s="8">
+        <v>1.28226562</v>
+      </c>
+      <c r="P29" s="8">
+        <v>-12.938589</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>-9.9254768000000002</v>
+      </c>
+      <c r="R29" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S29" s="8">
+        <v>0.38482293000000001</v>
+      </c>
+      <c r="T29" s="8">
+        <v>-2463.1518000000001</v>
+      </c>
+      <c r="U29" s="8">
+        <v>-2437.6228999999998</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="8">
+        <v>5.8244999999999998E-4</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0.72549549000000002</v>
+      </c>
+      <c r="D30" s="8">
+        <v>6.8404000000000002E-4</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.67535679999999998</v>
+      </c>
+      <c r="F30" s="8">
+        <v>3.86097E-3</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.32418422000000002</v>
+      </c>
+      <c r="H30" s="8">
+        <v>9.8407321999999997</v>
+      </c>
+      <c r="I30" s="8">
+        <v>2.7864880000000002E-2</v>
+      </c>
+      <c r="J30" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K30" s="8">
+        <v>25</v>
+      </c>
+      <c r="L30" s="8">
+        <v>-88.126035999999999</v>
+      </c>
+      <c r="M30" s="8">
+        <v>-0.25236550000000002</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1.53254063</v>
+      </c>
+      <c r="O30" s="8">
+        <v>1.1981621200000001</v>
+      </c>
+      <c r="P30" s="8">
+        <v>-12.880725999999999</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>-9.8523391</v>
+      </c>
+      <c r="R30" s="9">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="S30" s="8">
+        <v>1.1941796600000001</v>
+      </c>
+      <c r="T30" s="8">
+        <v>-2510.3690999999999</v>
+      </c>
+      <c r="U30" s="8">
+        <v>-2484.0612999999998</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="9">
+        <v>5.3000000000000001E-5</v>
+      </c>
+      <c r="C31" s="8">
+        <v>4.4948200000000001E-3</v>
+      </c>
+      <c r="D31" s="8">
+        <v>2.0837000000000001E-4</v>
+      </c>
+      <c r="E31" s="8">
+        <v>6.6017000000000003E-3</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1.4912599999999999E-3</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.16551119</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1.6653333699999999</v>
+      </c>
+      <c r="I31" s="8">
+        <v>5.5853700000000001E-3</v>
+      </c>
+      <c r="J31" s="8">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0.49328853</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1.7952000000000001E-3</v>
+      </c>
+      <c r="N31" s="9">
+        <v>7.2500000000000005E-16</v>
+      </c>
+      <c r="O31" s="8">
+        <v>6.7024420000000001E-2</v>
+      </c>
+      <c r="P31" s="8">
+        <v>4.8158899999999998E-2</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>6.7926929999999996E-2</v>
+      </c>
+      <c r="R31" s="8">
+        <v>0</v>
+      </c>
+      <c r="S31" s="8">
+        <v>0.72150586999999999</v>
+      </c>
+      <c r="T31" s="8">
+        <v>122.45325099999999</v>
+      </c>
+      <c r="U31" s="8">
+        <v>122.180959</v>
+      </c>
+      <c r="V31" s="8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
